--- a/biology/Botanique/Phyllostachys/Phyllostachys.xlsx
+++ b/biology/Botanique/Phyllostachys/Phyllostachys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Phyllostachys fait partie des Poaceae et regroupe plusieurs espèces de bambous. Ce sont pour nombre d'entre eux des bambous pouvant être cultivés jusqu'en Belgique.
 Le genre Phyllostachys regroupe la plupart des espèces pouvant être trouvées en pépinière en Europe.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Phyllostachys se caractérisent par 2 branches de taille inégale aux nœuds de leurs chaumes. Un sillon sur l'entre-nœud est également présent.
-Les Phyllostachys ont un rhizome leptomorphe, ils sont donc traçants et peuvent être envahissants. C'est le cas notamment en Nouvelle-Calédonie[1], notamment l'espèce Phyllostachys flexuosa[2],[3].
+Les Phyllostachys ont un rhizome leptomorphe, ils sont donc traçants et peuvent être envahissants. C'est le cas notamment en Nouvelle-Calédonie, notamment l'espèce Phyllostachys flexuosa,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllo vient du grec ancien φύλλον (phýllon) :« feuille » et stachys du grec στάχυς (stáchus) : épi. Le Phyllostachys est donc un grand épi à feuilles.
 </t>
@@ -575,10 +591,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par Siebold et Zuccarini en 1843[4].
-En l'absence de floraisons régulière, l'identification des espèces se fait principalement sur les caractères des feuilles caulinaires (c'est-à-dire les « feuilles » qui poussent directement sur la tige principale et non à l'extrémité des rameaux) visibles à l'émergence des jeunes chaumes au printemps[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par Siebold et Zuccarini en 1843.
+En l'absence de floraisons régulière, l'identification des espèces se fait principalement sur les caractères des feuilles caulinaires (c'est-à-dire les « feuilles » qui poussent directement sur la tige principale et non à l'extrémité des rameaux) visibles à l'émergence des jeunes chaumes au printemps,.
 On regarde alors la couleur de base de la gaine foliaire (des feuilles caulinaires) ainsi que la présence ou l'absence sur celle-ci de taches et de pilosité. À la jonction entre la gaine et le limbe imparfait on regarde la présence ou l'absence d'oreillettes (et leur forme et couleur) et de longues soies. Le limbe imparfait peut être plat, ondulé voire fortement froissé. Chez la plupart des espèces il se replie vers le bas, mais reste horizontal voir dressé chez certaines autres. La ligule est également utile pour la détermination : elle peut être ciliée (à cils &gt; ou &lt; à la hauteur de la ligule) ou non et son rapport longueur sur largeur est également un critère.
 Quelques rares caractères diagnostics sont observables sur les chaumes comme la présence ou l'absence d'une pruine blanchâtre (qui tend à disparaître rapidement), voire d'une pilosité sur les jeunes chaume. On regarde également le rapport longueur sur largeur des entre-noeuds basaux.
 Enfin la taille en hauteur ainsi que le diamètre maximum, des chaumes adultes, bien que dépendants du climat et donc relatifs, restent des critères de détermination utile.
@@ -610,9 +628,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (14 novembre 2016)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (14 novembre 2016) :
 Phyllostachys acuta C.D.Chu &amp; C.S.Chao (1980)
 Phyllostachys acutiligula G.H.Lai (2013)
 Phyllostachys albidula N.X.Ma &amp; W.Y.Zhang (2012)
@@ -705,7 +725,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Phyllostachys bambusoides 'Castillonis', (8-10m) c'est le bambou géant qui supporte le mieux le calcaire. Ses chaumes sont jaunes rayés de vert.
 Phyllostachys bambusoides 'Castillonis Inversa'
